--- a/amproc/BoM fm row.xlsx
+++ b/amproc/BoM fm row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Electronics\amtx\Audio\amproc\amproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F033F8-CBBC-45E5-8311-6A52D2EDF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620C5A3-C7B5-4517-965A-8807A9891444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="286">
   <si>
     <t>Reference</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve">C1 </t>
-  </si>
-  <si>
     <t>100p</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>150n</t>
   </si>
   <si>
-    <t xml:space="preserve">C25 </t>
-  </si>
-  <si>
-    <t>560p</t>
-  </si>
-  <si>
     <t xml:space="preserve">C26 C29 C16 C15 C9 C30 </t>
   </si>
   <si>
@@ -337,15 +328,6 @@
     <t>2763215</t>
   </si>
   <si>
-    <t>560pF 50V 5% C0G</t>
-  </si>
-  <si>
-    <t>K561J15C0GF5TL2</t>
-  </si>
-  <si>
-    <t>2860139</t>
-  </si>
-  <si>
     <t>T1-3/4</t>
   </si>
   <si>
@@ -893,6 +875,9 @@
   </si>
   <si>
     <t>1516277</t>
+  </si>
+  <si>
+    <t>C1 C25</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1777,54 +1762,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>2860078</v>
@@ -1834,74 +1819,74 @@
       </c>
       <c r="K2">
         <f>B2*J2</f>
-        <v>7.1300000000000002E-2</v>
+        <v>0.1426</v>
       </c>
       <c r="L2"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J3">
         <v>0.187</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K37" si="0">B3*J3</f>
+        <f t="shared" ref="K3:K36" si="0">B3*J3</f>
         <v>0.374</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
         <v>246</v>
       </c>
-      <c r="D4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J4">
         <v>0.24399999999999999</v>
@@ -1914,31 +1899,31 @@
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
       </c>
       <c r="J5">
         <v>0.439</v>
@@ -1951,31 +1936,31 @@
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
         <v>82</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
       </c>
       <c r="J6">
         <v>8.2299999999999998E-2</v>
@@ -1988,31 +1973,31 @@
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>0.128</v>
@@ -2025,31 +2010,31 @@
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>0.13700000000000001</v>
@@ -2060,312 +2045,312 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J9">
-        <v>0.13500000000000001</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
+        <v>0.44699999999999995</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J10">
-        <v>7.4499999999999997E-2</v>
+        <v>0.13</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.44699999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="J11">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="J12">
-        <v>0.13500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13">
-        <v>0.27500000000000002</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
       <c r="J14">
-        <v>6.0900000000000003E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>6.0900000000000003E-2</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>114</v>
       </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
       <c r="J15">
-        <v>3.1899999999999998E-2</v>
+        <v>0.193</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.19139999999999999</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C16"/>
       <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
         <v>117</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>121</v>
-      </c>
       <c r="J16">
-        <v>0.193</v>
+        <v>0.59</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1.1579999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17"/>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -2374,32 +2359,34 @@
         <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
         <v>124</v>
       </c>
-      <c r="I17" t="s">
-        <v>125</v>
-      </c>
       <c r="J17">
-        <v>0.59</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1.77</v>
-      </c>
-      <c r="L17"/>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>127</v>
@@ -2411,1259 +2398,1220 @@
         <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18">
-        <v>0.58099999999999996</v>
+        <v>0.247</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>0.58099999999999996</v>
+        <v>0.247</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
         <v>133</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
         <v>135</v>
       </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>137</v>
-      </c>
       <c r="J19">
-        <v>0.247</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>0.247</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="E20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" t="s">
-        <v>140</v>
-      </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
         <v>141</v>
       </c>
       <c r="J20">
-        <v>0.13200000000000001</v>
+        <v>2.52E-2</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>2.52E-2</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="J21">
-        <v>2.52E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="L21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.185</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="J22">
-        <v>9.2499999999999999E-2</v>
+        <v>0.151</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.185</v>
+        <v>0.45299999999999996</v>
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>153</v>
-      </c>
       <c r="J23">
-        <v>0.151</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>0.45299999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J24">
-        <v>0.16400000000000001</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>0.98399999999999999</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="J25">
-        <v>2.8799999999999999E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>5.7599999999999998E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
         <v>156</v>
       </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>271</v>
-      </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="J26">
-        <v>2.98E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>2.98E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J27">
-        <v>2.8400000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>5.6800000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="J28">
-        <v>0.03</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
         <v>264</v>
       </c>
-      <c r="D29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" t="s">
-        <v>273</v>
-      </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J29">
-        <v>2.8199999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>2.8199999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="J30">
-        <v>3.0700000000000002E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>3.0700000000000002E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J31">
-        <v>2.86E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>2.86E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J32">
-        <v>0.03</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="J33">
-        <v>2.8799999999999999E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>2.8799999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J34">
-        <v>2.9499999999999998E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>244</v>
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="J35">
-        <v>2.8199999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>5.6399999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J36">
-        <v>0.03</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>470</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
         <v>185</v>
       </c>
       <c r="J37">
-        <v>2.8799999999999999E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>2.8799999999999999E-2</v>
+        <f t="shared" ref="K37:K50" si="1">B37*J37</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>470</v>
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
         <v>186</v>
       </c>
       <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
         <v>189</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
         <v>190</v>
       </c>
-      <c r="H38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
         <v>191</v>
       </c>
-      <c r="J38">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ref="K38:K51" si="1">B38*J38</f>
-        <v>0.15720000000000001</v>
-      </c>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
         <v>192</v>
       </c>
-      <c r="F39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" t="s">
-        <v>195</v>
-      </c>
       <c r="J39">
-        <v>2.8400000000000002E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>0.11360000000000001</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J40">
-        <v>2.8299999999999999E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0.14149999999999999</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>560</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
         <v>199</v>
       </c>
-      <c r="H41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s">
-        <v>200</v>
-      </c>
       <c r="J41">
-        <v>2.8400000000000002E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>0.11360000000000001</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>560</v>
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J42">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>2.8799999999999999E-2</v>
+        <v>0.31679999999999997</v>
       </c>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="J43">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>0.31679999999999997</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="I44" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="J44">
-        <v>2.8799999999999999E-2</v>
+        <v>1.5</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>2.8799999999999999E-2</v>
+        <v>3</v>
       </c>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
-        <v>206</v>
+      <c r="C45">
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="I46" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J46">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L46"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J47">
-        <v>1.25</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>5.43</v>
       </c>
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
       <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="s">
         <v>220</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" t="s">
         <v>221</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s">
         <v>222</v>
       </c>
-      <c r="G48" t="s">
-        <v>223</v>
-      </c>
-      <c r="H48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s">
-        <v>224</v>
-      </c>
       <c r="J48">
-        <v>0.90500000000000003</v>
+        <v>1.84</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>5.43</v>
+        <v>1.84</v>
       </c>
       <c r="L48"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" t="s">
         <v>225</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
         <v>226</v>
       </c>
-      <c r="F49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s">
-        <v>228</v>
-      </c>
       <c r="J49">
-        <v>1.84</v>
+        <v>0.46</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>1.84</v>
+        <v>0.46</v>
       </c>
       <c r="L49"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" t="s">
         <v>229</v>
       </c>
-      <c r="E50" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" t="s">
-        <v>231</v>
-      </c>
-      <c r="H50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s">
-        <v>232</v>
-      </c>
       <c r="J50">
-        <v>0.46</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0.46</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" t="s">
-        <v>235</v>
-      </c>
-      <c r="J51">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="1"/>
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="L51"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K53" s="2">
-        <f>SUM(K2:K51)</f>
-        <v>29.713899999999999</v>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="2">
+        <f>SUM(K2:K50)</f>
+        <v>29.650200000000002</v>
       </c>
     </row>
   </sheetData>

--- a/amproc/BoM fm row.xlsx
+++ b/amproc/BoM fm row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Electronics\amtx\Audio\amproc\amproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620C5A3-C7B5-4517-965A-8807A9891444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73689CE6-DFAC-428E-8CCF-2DC463541A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,8 +884,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.0000_-;\-&quot;£&quot;* #,##0.0000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1365,14 +1366,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1743,8 +1743,9 @@
     <col min="5" max="5" width="33.765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.23046875" style="2"/>
+    <col min="9" max="9" width="23.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.61328125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1776,17 +1777,17 @@
       <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -1811,19 +1812,18 @@
       <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>2860078</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <f>B2*J2</f>
         <v>0.1426</v>
       </c>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -1851,16 +1851,15 @@
       <c r="I3" t="s">
         <v>244</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>0.187</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K36" si="0">B3*J3</f>
         <v>0.374</v>
       </c>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -1888,16 +1887,15 @@
       <c r="I4" t="s">
         <v>247</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>0.24399999999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0.48799999999999999</v>
       </c>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1925,16 +1923,15 @@
       <c r="I5" t="s">
         <v>86</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>0.439</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0.878</v>
       </c>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1962,16 +1959,15 @@
       <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0.57609999999999995</v>
       </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1999,16 +1995,15 @@
       <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>0.128</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2036,16 +2031,15 @@
       <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2073,16 +2067,15 @@
       <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>0.44699999999999995</v>
       </c>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2110,16 +2103,15 @@
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.13</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -2147,16 +2139,15 @@
       <c r="I11" t="s">
         <v>262</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2184,16 +2175,15 @@
       <c r="I12" t="s">
         <v>101</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2221,16 +2211,15 @@
       <c r="I13" t="s">
         <v>106</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2258,16 +2247,15 @@
       <c r="I14" t="s">
         <v>110</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>0.19139999999999999</v>
       </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2295,23 +2283,21 @@
       <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>0.193</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>1.1579999999999999</v>
       </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>116</v>
       </c>
@@ -2330,16 +2316,15 @@
       <c r="I16" t="s">
         <v>119</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>0.59</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>1.77</v>
       </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2367,10 +2352,10 @@
       <c r="I17" t="s">
         <v>124</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>0.58099999999999996</v>
       </c>
@@ -2378,7 +2363,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2406,10 +2391,10 @@
       <c r="I18" t="s">
         <v>131</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0.247</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>0.247</v>
       </c>
@@ -2417,7 +2402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2445,10 +2430,10 @@
       <c r="I19" t="s">
         <v>135</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>0.13200000000000001</v>
       </c>
@@ -2456,7 +2441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2484,10 +2469,10 @@
       <c r="I20" t="s">
         <v>141</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>2.52E-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
@@ -2495,7 +2480,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>279</v>
       </c>
@@ -2523,16 +2508,15 @@
       <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>0.185</v>
       </c>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2560,16 +2544,15 @@
       <c r="I22" t="s">
         <v>147</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>0.151</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>0.45299999999999996</v>
       </c>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2597,16 +2580,15 @@
       <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>0.98399999999999999</v>
       </c>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2634,16 +2616,15 @@
       <c r="I24" t="s">
         <v>153</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>230</v>
       </c>
@@ -2671,16 +2652,15 @@
       <c r="I25" t="s">
         <v>266</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>2.98E-2</v>
       </c>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2708,16 +2688,15 @@
       <c r="I26" t="s">
         <v>157</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2745,16 +2724,15 @@
       <c r="I27" t="s">
         <v>167</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>0.03</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -2782,16 +2760,15 @@
       <c r="I28" t="s">
         <v>271</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2819,16 +2796,15 @@
       <c r="I29" t="s">
         <v>270</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2856,16 +2832,15 @@
       <c r="I30" t="s">
         <v>169</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>2.86E-2</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>2.86E-2</v>
       </c>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2893,16 +2868,15 @@
       <c r="I31" t="s">
         <v>170</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>0.03</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2930,16 +2904,15 @@
       <c r="I32" t="s">
         <v>173</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>234</v>
       </c>
@@ -2967,16 +2940,15 @@
       <c r="I33" t="s">
         <v>250</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>235</v>
       </c>
@@ -3004,16 +2976,15 @@
       <c r="I34" t="s">
         <v>253</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -3041,16 +3012,15 @@
       <c r="I35" t="s">
         <v>176</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>0.03</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3078,16 +3048,15 @@
       <c r="I36" t="s">
         <v>179</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3115,16 +3084,15 @@
       <c r="I37" t="s">
         <v>185</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <f t="shared" ref="K37:K50" si="1">B37*J37</f>
         <v>0.15720000000000001</v>
       </c>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3152,16 +3120,15 @@
       <c r="I38" t="s">
         <v>189</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <f t="shared" si="1"/>
         <v>0.11360000000000001</v>
       </c>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3189,16 +3156,15 @@
       <c r="I39" t="s">
         <v>192</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <f t="shared" si="1"/>
         <v>0.14149999999999999</v>
       </c>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3226,16 +3192,15 @@
       <c r="I40" t="s">
         <v>194</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>0.11360000000000001</v>
       </c>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3263,16 +3228,15 @@
       <c r="I41" t="s">
         <v>199</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <f t="shared" si="1"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -3300,16 +3264,15 @@
       <c r="I42" t="s">
         <v>198</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <f t="shared" si="1"/>
         <v>0.31679999999999997</v>
       </c>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3337,16 +3300,15 @@
       <c r="I43" t="s">
         <v>236</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <f t="shared" si="1"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3374,16 +3336,15 @@
       <c r="I44" t="s">
         <v>206</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>1.5</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3411,16 +3372,15 @@
       <c r="I45" t="s">
         <v>213</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>1.4</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -3448,16 +3408,15 @@
       <c r="I46" t="s">
         <v>209</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>1.25</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -3485,16 +3444,15 @@
       <c r="I47" t="s">
         <v>218</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <f t="shared" si="1"/>
         <v>5.43</v>
       </c>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3522,16 +3480,15 @@
       <c r="I48" t="s">
         <v>222</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>1.84</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <f t="shared" si="1"/>
         <v>1.84</v>
       </c>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3559,16 +3516,15 @@
       <c r="I49" t="s">
         <v>226</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>0.46</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3596,20 +3552,23 @@
       <c r="I50" t="s">
         <v>229</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>0.40400000000000003</v>
       </c>
-      <c r="L50"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I52"/>
       <c r="J52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="5">
         <f>SUM(K2:K50)</f>
         <v>29.650200000000002</v>
       </c>

--- a/amproc/BoM fm row.xlsx
+++ b/amproc/BoM fm row.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Electronics\amtx\Audio\amproc\amproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73689CE6-DFAC-428E-8CCF-2DC463541A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40660967-0720-48A1-A61E-4166690BFD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amproc" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.0000_-;\-&quot;£&quot;* #,##0.0000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.0000_-;\-&quot;£&quot;* #,##0.0000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1366,13 +1366,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1731,14 +1732,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.61328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.4609375" bestFit="1" customWidth="1"/>
@@ -1756,7 +1755,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1794,7 +1793,7 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -1830,7 +1829,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D3" t="s">
@@ -1866,7 +1865,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D4" t="s">
@@ -1902,7 +1901,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
@@ -1938,7 +1937,7 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
@@ -1974,7 +1973,7 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
@@ -2010,7 +2009,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -2046,7 +2045,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
@@ -2082,7 +2081,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2118,7 +2117,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D11" t="s">
@@ -2154,7 +2153,7 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
@@ -2190,7 +2189,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
@@ -2226,7 +2225,7 @@
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -2262,7 +2261,7 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
@@ -2331,7 +2330,7 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
@@ -2370,7 +2369,7 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
@@ -2409,7 +2408,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
@@ -2448,7 +2447,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -2487,7 +2486,7 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D21" t="s">
@@ -2523,7 +2522,7 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
@@ -2559,7 +2558,7 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
@@ -2595,7 +2594,7 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>56</v>
       </c>
       <c r="D24" t="s">
@@ -2631,7 +2630,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D25" t="s">
@@ -2667,7 +2666,7 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
@@ -2703,7 +2702,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
@@ -2739,7 +2738,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D28" t="s">
@@ -2775,7 +2774,7 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D29" t="s">
@@ -2811,7 +2810,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
@@ -2847,7 +2846,7 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
@@ -2883,7 +2882,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D32" t="s">
@@ -2919,7 +2918,7 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D33" t="s">
@@ -2955,7 +2954,7 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D34" t="s">
@@ -2991,7 +2990,7 @@
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>100</v>
       </c>
       <c r="D35" t="s">
@@ -3027,7 +3026,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D36" t="s">
@@ -3063,7 +3062,7 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>470</v>
       </c>
       <c r="D37" t="s">
@@ -3099,7 +3098,7 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
@@ -3135,7 +3134,7 @@
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
@@ -3171,7 +3170,7 @@
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
@@ -3207,7 +3206,7 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>560</v>
       </c>
       <c r="D41" t="s">
@@ -3243,7 +3242,7 @@
       <c r="B42">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
@@ -3279,7 +3278,7 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>10</v>
       </c>
       <c r="D43" t="s">
@@ -3315,7 +3314,7 @@
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D44" t="s">
@@ -3351,7 +3350,7 @@
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>100</v>
       </c>
       <c r="D45" t="s">
@@ -3387,7 +3386,7 @@
       <c r="B46">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D46" t="s">
@@ -3423,7 +3422,7 @@
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
@@ -3459,7 +3458,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D48" t="s">
@@ -3495,7 +3494,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="s">
@@ -3531,7 +3530,7 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D50" t="s">

--- a/amproc/BoM fm row.xlsx
+++ b/amproc/BoM fm row.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Electronics\amtx\Audio\amproc\amproc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Electronics\amtx\Audio\amproc\amproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40660967-0720-48A1-A61E-4166690BFD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB51B4C-C8EB-4C16-8BF1-90439420195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amproc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="290">
   <si>
     <t>Reference</t>
   </si>
@@ -178,9 +190,6 @@
     <t>2k2</t>
   </si>
   <si>
-    <t xml:space="preserve">R43 R29 R10 R1 </t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -878,6 +887,21 @@
   </si>
   <si>
     <t>C1 C25</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>430k</t>
+  </si>
+  <si>
+    <t>530k 0.6W 1% metal film</t>
+  </si>
+  <si>
+    <t>MCMF006FF4303A50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43 R29 R1 </t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1396,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1730,25 +1754,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.61328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,33 +1788,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1797,19 +1823,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2">
         <v>2860078</v>
@@ -1822,69 +1848,69 @@
         <v>0.1426</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
         <v>241</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>242</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
         <v>243</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>244</v>
       </c>
       <c r="J3" s="4">
         <v>0.187</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K36" si="0">B3*J3</f>
+        <f t="shared" ref="K3:K37" si="0">B3*J3</f>
         <v>0.374</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
         <v>245</v>
       </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
         <v>246</v>
-      </c>
-      <c r="H4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" t="s">
-        <v>247</v>
       </c>
       <c r="J4" s="4">
         <v>0.24399999999999999</v>
@@ -1894,7 +1920,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1905,22 +1931,22 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
         <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
       </c>
       <c r="J5" s="4">
         <v>0.439</v>
@@ -1930,9 +1956,9 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1941,22 +1967,22 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
       </c>
       <c r="J6" s="4">
         <v>8.2299999999999998E-2</v>
@@ -1966,9 +1992,9 @@
         <v>0.57609999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1977,22 +2003,22 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
       </c>
       <c r="J7" s="4">
         <v>0.128</v>
@@ -2002,7 +2028,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2013,22 +2039,22 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
         <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
       </c>
       <c r="J8" s="4">
         <v>0.13700000000000001</v>
@@ -2038,7 +2064,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2049,22 +2075,22 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
         <v>87</v>
       </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
         <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
       </c>
       <c r="J9" s="4">
         <v>7.4499999999999997E-2</v>
@@ -2074,7 +2100,7 @@
         <v>0.44699999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2085,22 +2111,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
         <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>98</v>
       </c>
       <c r="J10" s="4">
         <v>0.13</v>
@@ -2110,33 +2136,33 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>260</v>
       </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>262</v>
       </c>
       <c r="J11" s="4">
         <v>0.13500000000000001</v>
@@ -2146,7 +2172,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2157,22 +2183,22 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
         <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>101</v>
       </c>
       <c r="J12" s="4">
         <v>0.27500000000000002</v>
@@ -2182,7 +2208,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2193,22 +2219,22 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>103</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
         <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>106</v>
       </c>
       <c r="J13" s="4">
         <v>6.0900000000000003E-2</v>
@@ -2218,7 +2244,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2229,22 +2255,22 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
         <v>107</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
         <v>108</v>
       </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
         <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>110</v>
       </c>
       <c r="J14" s="4">
         <v>3.1899999999999998E-2</v>
@@ -2254,7 +2280,7 @@
         <v>0.19139999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2265,22 +2291,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
         <v>111</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
       </c>
       <c r="J15" s="4">
         <v>0.193</v>
@@ -2290,30 +2316,30 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
         <v>117</v>
       </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>118</v>
-      </c>
-      <c r="I16" t="s">
-        <v>119</v>
       </c>
       <c r="J16" s="4">
         <v>0.59</v>
@@ -2323,7 +2349,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2334,22 +2360,22 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
         <v>123</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>124</v>
       </c>
       <c r="J17" s="4">
         <v>0.58099999999999996</v>
@@ -2359,10 +2385,10 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2373,22 +2399,22 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>128</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
       </c>
       <c r="J18" s="4">
         <v>0.247</v>
@@ -2398,10 +2424,10 @@
         <v>0.247</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2412,22 +2438,22 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
         <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>135</v>
       </c>
       <c r="J19" s="4">
         <v>0.13200000000000001</v>
@@ -2437,10 +2463,10 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2451,22 +2477,22 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
         <v>136</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s">
-        <v>138</v>
-      </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="4">
         <v>2.52E-2</v>
@@ -2476,36 +2502,36 @@
         <v>2.52E-2</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
         <v>280</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>281</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
         <v>282</v>
       </c>
-      <c r="F21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
         <v>283</v>
-      </c>
-      <c r="H21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s">
-        <v>284</v>
       </c>
       <c r="J21" s="4">
         <v>9.2499999999999999E-2</v>
@@ -2515,7 +2541,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2526,22 +2552,22 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="F22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J22" s="4">
         <v>0.151</v>
@@ -2551,7 +2577,7 @@
         <v>0.45299999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2562,22 +2588,22 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
         <v>148</v>
-      </c>
-      <c r="F23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s">
-        <v>149</v>
       </c>
       <c r="J23" s="4">
         <v>0.16400000000000001</v>
@@ -2587,678 +2613,677 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>2401823</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2.07E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
         <v>150</v>
       </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="C26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s">
         <v>265</v>
       </c>
-      <c r="H25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="J26" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
         <v>156</v>
       </c>
-      <c r="H26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="J27" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="4">
         <v>0.03</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
         <v>267</v>
       </c>
-      <c r="F28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" t="s">
-        <v>268</v>
-      </c>
-      <c r="H28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="C30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
         <v>269</v>
       </c>
-      <c r="H29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s">
-        <v>270</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
         <v>168</v>
       </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="J31" s="4">
         <v>2.86E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" s="4">
         <v>0.03</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" t="s">
         <v>171</v>
       </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
         <v>172</v>
       </c>
-      <c r="H32" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="J33" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s">
         <v>249</v>
       </c>
-      <c r="F33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s">
-        <v>250</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C35" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
         <v>251</v>
       </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s">
         <v>252</v>
       </c>
-      <c r="H34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s">
-        <v>253</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>5.6399999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>100</v>
       </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s">
         <v>175</v>
       </c>
-      <c r="H35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>0.03</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>470</v>
       </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" t="s">
         <v>183</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
         <v>184</v>
       </c>
-      <c r="H37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J38" s="4">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K51" si="1">B38*J38</f>
+        <v>0.15720000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
         <v>185</v>
       </c>
-      <c r="J37" s="4">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" ref="K37:K50" si="1">B37*J37</f>
-        <v>0.15720000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K39" s="4">
         <f t="shared" si="1"/>
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
         <v>190</v>
       </c>
-      <c r="F39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s">
         <v>191</v>
       </c>
-      <c r="H39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s">
-        <v>192</v>
-      </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>0.14149999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s">
         <v>193</v>
       </c>
-      <c r="H40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s">
-        <v>194</v>
-      </c>
-      <c r="J40" s="4">
+      <c r="J41" s="4">
         <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.11360000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>560</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" s="4">
-        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="1"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>560</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
         <v>198</v>
@@ -3268,308 +3293,344 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="1"/>
-        <v>0.31679999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="J43" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="1"/>
+        <v>0.31679999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>235</v>
+      </c>
+      <c r="J44" s="4">
         <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" t="s">
-        <v>201</v>
-      </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" t="s">
-        <v>206</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1.5</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" s="2">
-        <v>100</v>
+      <c r="C45" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J45" s="4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J46" s="4">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I47" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J47" s="4">
-        <v>0.90500000000000003</v>
+        <v>1.25</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="1"/>
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" t="s">
         <v>216</v>
       </c>
-      <c r="G48" t="s">
-        <v>221</v>
-      </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J48" s="4">
-        <v>1.84</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="1"/>
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J49" s="4">
-        <v>0.46</v>
+        <v>1.84</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" t="s">
         <v>223</v>
       </c>
-      <c r="E50" t="s">
-        <v>227</v>
-      </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J50" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" s="4">
         <v>0.40400000000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I52"/>
-      <c r="J52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K52" s="5">
-        <f>SUM(K2:K50)</f>
-        <v>29.650200000000002</v>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+      <c r="J53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53" s="5">
+        <f>SUM(K2:K51)</f>
+        <v>29.642500000000002</v>
       </c>
     </row>
   </sheetData>
